--- a/заказы/статистика филиалы/2023/10,23/12,10,23 ЗПФ/дв 13,10,23 лгрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/12,10,23 ЗПФ/дв 13,10,23 лгрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\12,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CECE973-E46E-4DF2-A1F5-2AB09DB591A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1731C-6EAC-4EB3-BE1A-FA432BDC2FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -433,6 +433,7 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3030,8 +3031,8 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC14" sqref="AC14"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3775,7 +3776,7 @@
         <f>VLOOKUP(A13,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="26">
         <v>5</v>
       </c>
       <c r="Y13" s="2">
@@ -4046,7 +4047,7 @@
         <f>VLOOKUP(A17,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X17" s="18">
+      <c r="X17" s="26">
         <v>3</v>
       </c>
       <c r="Y17" s="2">
@@ -4112,7 +4113,7 @@
         <f>VLOOKUP(A18,[1]TDSheet!$A:$W,23,0)</f>
         <v>6</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="26">
         <v>17</v>
       </c>
       <c r="Y18" s="2">
@@ -4177,7 +4178,7 @@
         <f>VLOOKUP(A19,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="26">
         <v>17</v>
       </c>
       <c r="Y19" s="2">
@@ -4240,7 +4241,7 @@
         <f>VLOOKUP(A20,[1]TDSheet!$A:$W,23,0)</f>
         <v>6</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="26">
         <v>17</v>
       </c>
       <c r="Y20" s="2">
@@ -4377,7 +4378,7 @@
         <f>VLOOKUP(A22,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="26">
         <v>5</v>
       </c>
       <c r="Y22" s="2">
@@ -4519,7 +4520,7 @@
         <f>VLOOKUP(A24,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24" s="26">
         <v>10</v>
       </c>
       <c r="Y24" s="2">
@@ -4588,7 +4589,7 @@
         <f>VLOOKUP(A25,[1]TDSheet!$A:$W,23,0)</f>
         <v>16</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X25" s="26">
         <v>3</v>
       </c>
       <c r="Y25" s="2">
@@ -4797,7 +4798,7 @@
         <f>VLOOKUP(A28,[1]TDSheet!$A:$W,23,0)</f>
         <v>16</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="26">
         <v>3</v>
       </c>
       <c r="Y28" s="2">
@@ -4869,7 +4870,7 @@
         <f>VLOOKUP(A29,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="26">
         <v>4</v>
       </c>
       <c r="Y29" s="2">
@@ -5003,7 +5004,7 @@
         <f>VLOOKUP(A31,[1]TDSheet!$A:$W,23,0)</f>
         <v>8</v>
       </c>
-      <c r="X31" s="18">
+      <c r="X31" s="26">
         <v>7</v>
       </c>
       <c r="Y31" s="2">
@@ -5211,7 +5212,7 @@
         <f>VLOOKUP(A34,[1]TDSheet!$A:$W,23,0)</f>
         <v>5</v>
       </c>
-      <c r="X34" s="18">
+      <c r="X34" s="26">
         <v>50</v>
       </c>
       <c r="Y34" s="2">
@@ -5473,7 +5474,7 @@
         <f>VLOOKUP(A38,[1]TDSheet!$A:$W,23,0)</f>
         <v>1.8</v>
       </c>
-      <c r="X38" s="18">
+      <c r="X38" s="26">
         <v>56</v>
       </c>
       <c r="Y38" s="2">
@@ -5672,7 +5673,7 @@
         <f>VLOOKUP(A41,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X41" s="18">
+      <c r="X41" s="26">
         <v>13</v>
       </c>
       <c r="Y41" s="2">
@@ -5735,7 +5736,7 @@
         <f>VLOOKUP(A42,[1]TDSheet!$A:$W,23,0)</f>
         <v>12</v>
       </c>
-      <c r="X42" s="18">
+      <c r="X42" s="26">
         <v>13</v>
       </c>
       <c r="Y42" s="2">
